--- a/Download/Cinghiali_ZP.xlsx
+++ b/Download/Cinghiali_ZP.xlsx
@@ -141,9 +141,11 @@
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="F2"/>
+        <v>5.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -161,7 +163,9 @@
       <c r="E3" t="n">
         <v>3.0</v>
       </c>
-      <c r="F3"/>
+      <c r="F3" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -179,7 +183,9 @@
       <c r="E4" t="n">
         <v>31.0</v>
       </c>
-      <c r="F4"/>
+      <c r="F4" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -197,7 +203,9 @@
       <c r="E5" t="n">
         <v>4.0</v>
       </c>
-      <c r="F5"/>
+      <c r="F5" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -213,9 +221,11 @@
         <v>13</v>
       </c>
       <c r="E6" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="F6"/>
+        <v>7.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -231,9 +241,11 @@
         <v>14</v>
       </c>
       <c r="E7" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="F7"/>
+        <v>13.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -251,7 +263,9 @@
       <c r="E8" t="n">
         <v>1.0</v>
       </c>
-      <c r="F8"/>
+      <c r="F8" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">

--- a/Download/Cinghiali_ZP.xlsx
+++ b/Download/Cinghiali_ZP.xlsx
@@ -12,7 +12,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="17">
+  <si>
+    <t>Area</t>
+  </si>
   <si>
     <t>Regione</t>
   </si>
@@ -30,6 +33,9 @@
   </si>
   <si>
     <t>Positivo</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
   <si>
     <t>Abruzzo</t>
@@ -126,10 +132,13 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -140,16 +149,19 @@
       <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="n">
         <v>5.0</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -158,18 +170,21 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="n">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="n">
         <v>3.0</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -178,12 +193,15 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="n">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="n">
         <v>31.0</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -195,15 +213,18 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="n">
         <v>4.0</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -215,15 +236,18 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="n">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="n">
         <v>7.0</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -235,15 +259,18 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="n">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="n">
         <v>13.0</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -258,12 +285,15 @@
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" t="n">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="n">
         <v>1.0</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -278,12 +308,15 @@
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" t="n">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="n">
         <v>1.0</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>1.0</v>
       </c>
     </row>

--- a/Download/Cinghiali_ZP.xlsx
+++ b/Download/Cinghiali_ZP.xlsx
@@ -50,7 +50,7 @@
     <t>Rieti</t>
   </si>
   <si>
-    <t>EST</t>
+    <t>LIM</t>
   </si>
   <si>
     <t>INF</t>
@@ -216,13 +216,13 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
       </c>
       <c r="F5" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="G5" t="n">
         <v>0.0</v>
@@ -239,16 +239,16 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F6" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
@@ -265,10 +265,10 @@
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F7" t="n">
-        <v>13.0</v>
+        <v>4.0</v>
       </c>
       <c r="G7" t="n">
         <v>0.0</v>
@@ -285,13 +285,13 @@
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F8" t="n">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="G8" t="n">
         <v>0.0</v>
@@ -308,16 +308,16 @@
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
         <v>16</v>
       </c>
       <c r="F9" t="n">
-        <v>1.0</v>
+        <v>13.0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>

--- a/Download/Cinghiali_ZP.xlsx
+++ b/Download/Cinghiali_ZP.xlsx
@@ -17,15 +17,15 @@
     <t>Area</t>
   </si>
   <si>
+    <t>Zona</t>
+  </si>
+  <si>
     <t>Regione</t>
   </si>
   <si>
     <t>Provincia</t>
   </si>
   <si>
-    <t>Zona</t>
-  </si>
-  <si>
     <t>Incidentato</t>
   </si>
   <si>
@@ -38,31 +38,31 @@
     <t>3</t>
   </si>
   <si>
+    <t>INF</t>
+  </si>
+  <si>
+    <t>LIM</t>
+  </si>
+  <si>
+    <t>Lazio</t>
+  </si>
+  <si>
     <t>Abruzzo</t>
   </si>
   <si>
-    <t>Lazio</t>
+    <t>Rieti</t>
   </si>
   <si>
     <t>L'aquila</t>
   </si>
   <si>
-    <t>Rieti</t>
-  </si>
-  <si>
-    <t>LIM</t>
-  </si>
-  <si>
-    <t>INF</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
+    <t>Si</t>
+  </si>
+  <si>
     <t>Non determinato</t>
-  </si>
-  <si>
-    <t>Si</t>
   </si>
 </sst>
 </file>
@@ -153,7 +153,7 @@
         <v>14</v>
       </c>
       <c r="F2" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="G2" t="n">
         <v>0.0</v>
@@ -176,10 +176,10 @@
         <v>15</v>
       </c>
       <c r="F3" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="4">
@@ -187,19 +187,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F4" t="n">
-        <v>31.0</v>
+        <v>5.0</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>
@@ -219,10 +219,10 @@
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F5" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="G5" t="n">
         <v>0.0</v>
@@ -242,13 +242,13 @@
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" t="n">
-        <v>1.0</v>
+        <v>31.0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="7">
@@ -259,7 +259,7 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -282,13 +282,13 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F8" t="n">
         <v>7.0</v>
@@ -305,16 +305,16 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F9" t="n">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="G9" t="n">
         <v>0.0</v>

--- a/Download/Cinghiali_ZP.xlsx
+++ b/Download/Cinghiali_ZP.xlsx
@@ -245,7 +245,7 @@
         <v>15</v>
       </c>
       <c r="F6" t="n">
-        <v>31.0</v>
+        <v>33.0</v>
       </c>
       <c r="G6" t="n">
         <v>0.0</v>
@@ -268,7 +268,7 @@
         <v>14</v>
       </c>
       <c r="F7" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="G7" t="n">
         <v>0.0</v>

--- a/Download/Cinghiali_ZP.xlsx
+++ b/Download/Cinghiali_ZP.xlsx
@@ -314,7 +314,7 @@
         <v>15</v>
       </c>
       <c r="F9" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="G9" t="n">
         <v>0.0</v>

--- a/Download/Cinghiali_ZP.xlsx
+++ b/Download/Cinghiali_ZP.xlsx
@@ -222,7 +222,7 @@
         <v>16</v>
       </c>
       <c r="F5" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="G5" t="n">
         <v>0.0</v>

--- a/Download/Cinghiali_ZP.xlsx
+++ b/Download/Cinghiali_ZP.xlsx
@@ -199,7 +199,7 @@
         <v>14</v>
       </c>
       <c r="F4" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>
@@ -245,7 +245,7 @@
         <v>15</v>
       </c>
       <c r="F6" t="n">
-        <v>33.0</v>
+        <v>35.0</v>
       </c>
       <c r="G6" t="n">
         <v>0.0</v>
@@ -291,7 +291,7 @@
         <v>16</v>
       </c>
       <c r="F8" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="G8" t="n">
         <v>0.0</v>

--- a/Download/Cinghiali_ZP.xlsx
+++ b/Download/Cinghiali_ZP.xlsx
@@ -314,7 +314,7 @@
         <v>15</v>
       </c>
       <c r="F9" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="G9" t="n">
         <v>0.0</v>

--- a/Download/Cinghiali_ZP.xlsx
+++ b/Download/Cinghiali_ZP.xlsx
@@ -53,7 +53,7 @@
     <t>Rieti</t>
   </si>
   <si>
-    <t>L'aquila</t>
+    <t>L'Aquila</t>
   </si>
   <si>
     <t>No</t>
@@ -268,7 +268,7 @@
         <v>14</v>
       </c>
       <c r="F7" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="G7" t="n">
         <v>0.0</v>
@@ -314,7 +314,7 @@
         <v>15</v>
       </c>
       <c r="F9" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="G9" t="n">
         <v>0.0</v>

--- a/Download/Cinghiali_ZP.xlsx
+++ b/Download/Cinghiali_ZP.xlsx
@@ -245,7 +245,7 @@
         <v>15</v>
       </c>
       <c r="F6" t="n">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="G6" t="n">
         <v>0.0</v>

--- a/Download/Cinghiali_ZP.xlsx
+++ b/Download/Cinghiali_ZP.xlsx
@@ -314,7 +314,7 @@
         <v>15</v>
       </c>
       <c r="F9" t="n">
-        <v>18.0</v>
+        <v>20.0</v>
       </c>
       <c r="G9" t="n">
         <v>0.0</v>

--- a/Download/Cinghiali_ZP.xlsx
+++ b/Download/Cinghiali_ZP.xlsx
@@ -245,7 +245,7 @@
         <v>15</v>
       </c>
       <c r="F6" t="n">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="G6" t="n">
         <v>0.0</v>

--- a/Download/Cinghiali_ZP.xlsx
+++ b/Download/Cinghiali_ZP.xlsx
@@ -314,7 +314,7 @@
         <v>15</v>
       </c>
       <c r="F9" t="n">
-        <v>20.0</v>
+        <v>22.0</v>
       </c>
       <c r="G9" t="n">
         <v>0.0</v>

--- a/Download/Cinghiali_ZP.xlsx
+++ b/Download/Cinghiali_ZP.xlsx
@@ -291,7 +291,7 @@
         <v>16</v>
       </c>
       <c r="F8" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="G8" t="n">
         <v>0.0</v>

--- a/Download/Cinghiali_ZP.xlsx
+++ b/Download/Cinghiali_ZP.xlsx
@@ -314,7 +314,7 @@
         <v>15</v>
       </c>
       <c r="F9" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="G9" t="n">
         <v>0.0</v>

--- a/Download/Cinghiali_ZP.xlsx
+++ b/Download/Cinghiali_ZP.xlsx
@@ -245,7 +245,7 @@
         <v>15</v>
       </c>
       <c r="F6" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="G6" t="n">
         <v>0.0</v>
@@ -268,7 +268,7 @@
         <v>14</v>
       </c>
       <c r="F7" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="G7" t="n">
         <v>0.0</v>

--- a/Download/Cinghiali_ZP.xlsx
+++ b/Download/Cinghiali_ZP.xlsx
@@ -314,7 +314,7 @@
         <v>15</v>
       </c>
       <c r="F9" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="G9" t="n">
         <v>0.0</v>

--- a/Download/Cinghiali_ZP.xlsx
+++ b/Download/Cinghiali_ZP.xlsx
@@ -176,7 +176,7 @@
         <v>15</v>
       </c>
       <c r="F3" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="G3" t="n">
         <v>1.0</v>
@@ -314,7 +314,7 @@
         <v>15</v>
       </c>
       <c r="F9" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="G9" t="n">
         <v>0.0</v>

--- a/Download/Cinghiali_ZP.xlsx
+++ b/Download/Cinghiali_ZP.xlsx
@@ -245,7 +245,7 @@
         <v>15</v>
       </c>
       <c r="F6" t="n">
-        <v>39.0</v>
+        <v>41.0</v>
       </c>
       <c r="G6" t="n">
         <v>0.0</v>

--- a/Download/Cinghiali_ZP.xlsx
+++ b/Download/Cinghiali_ZP.xlsx
@@ -222,7 +222,7 @@
         <v>16</v>
       </c>
       <c r="F5" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="G5" t="n">
         <v>0.0</v>
@@ -314,7 +314,7 @@
         <v>15</v>
       </c>
       <c r="F9" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="G9" t="n">
         <v>0.0</v>

--- a/Download/Cinghiali_ZP.xlsx
+++ b/Download/Cinghiali_ZP.xlsx
@@ -222,7 +222,7 @@
         <v>16</v>
       </c>
       <c r="F5" t="n">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="G5" t="n">
         <v>0.0</v>
@@ -268,7 +268,7 @@
         <v>14</v>
       </c>
       <c r="F7" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="G7" t="n">
         <v>0.0</v>

--- a/Download/Cinghiali_ZP.xlsx
+++ b/Download/Cinghiali_ZP.xlsx
@@ -314,7 +314,7 @@
         <v>15</v>
       </c>
       <c r="F9" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="G9" t="n">
         <v>0.0</v>

--- a/Download/Cinghiali_ZP.xlsx
+++ b/Download/Cinghiali_ZP.xlsx
@@ -268,7 +268,7 @@
         <v>14</v>
       </c>
       <c r="F7" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="G7" t="n">
         <v>0.0</v>

--- a/Download/Cinghiali_ZP.xlsx
+++ b/Download/Cinghiali_ZP.xlsx
@@ -245,7 +245,7 @@
         <v>15</v>
       </c>
       <c r="F6" t="n">
-        <v>41.0</v>
+        <v>43.0</v>
       </c>
       <c r="G6" t="n">
         <v>0.0</v>
@@ -314,7 +314,7 @@
         <v>15</v>
       </c>
       <c r="F9" t="n">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
       <c r="G9" t="n">
         <v>0.0</v>

--- a/Download/Cinghiali_ZP.xlsx
+++ b/Download/Cinghiali_ZP.xlsx
@@ -314,7 +314,7 @@
         <v>15</v>
       </c>
       <c r="F9" t="n">
-        <v>29.0</v>
+        <v>33.0</v>
       </c>
       <c r="G9" t="n">
         <v>0.0</v>

--- a/Download/Cinghiali_ZP.xlsx
+++ b/Download/Cinghiali_ZP.xlsx
@@ -222,7 +222,7 @@
         <v>16</v>
       </c>
       <c r="F5" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="G5" t="n">
         <v>0.0</v>
@@ -314,7 +314,7 @@
         <v>15</v>
       </c>
       <c r="F9" t="n">
-        <v>33.0</v>
+        <v>34.0</v>
       </c>
       <c r="G9" t="n">
         <v>0.0</v>

--- a/Download/Cinghiali_ZP.xlsx
+++ b/Download/Cinghiali_ZP.xlsx
@@ -245,7 +245,7 @@
         <v>15</v>
       </c>
       <c r="F6" t="n">
-        <v>43.0</v>
+        <v>44.0</v>
       </c>
       <c r="G6" t="n">
         <v>0.0</v>

--- a/Download/Cinghiali_ZP.xlsx
+++ b/Download/Cinghiali_ZP.xlsx
@@ -153,7 +153,7 @@
         <v>14</v>
       </c>
       <c r="F2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G2" t="n">
         <v>0.0</v>
@@ -314,7 +314,7 @@
         <v>15</v>
       </c>
       <c r="F9" t="n">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
       <c r="G9" t="n">
         <v>0.0</v>

--- a/Download/Cinghiali_ZP.xlsx
+++ b/Download/Cinghiali_ZP.xlsx
@@ -176,7 +176,7 @@
         <v>15</v>
       </c>
       <c r="F3" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="G3" t="n">
         <v>1.0</v>
@@ -245,7 +245,7 @@
         <v>15</v>
       </c>
       <c r="F6" t="n">
-        <v>44.0</v>
+        <v>46.0</v>
       </c>
       <c r="G6" t="n">
         <v>0.0</v>
@@ -314,7 +314,7 @@
         <v>15</v>
       </c>
       <c r="F9" t="n">
-        <v>36.0</v>
+        <v>37.0</v>
       </c>
       <c r="G9" t="n">
         <v>0.0</v>

--- a/Download/Cinghiali_ZP.xlsx
+++ b/Download/Cinghiali_ZP.xlsx
@@ -199,7 +199,7 @@
         <v>14</v>
       </c>
       <c r="F4" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>

--- a/Download/Cinghiali_ZP.xlsx
+++ b/Download/Cinghiali_ZP.xlsx
@@ -314,7 +314,7 @@
         <v>15</v>
       </c>
       <c r="F9" t="n">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
       <c r="G9" t="n">
         <v>0.0</v>

--- a/Download/Cinghiali_ZP.xlsx
+++ b/Download/Cinghiali_ZP.xlsx
@@ -35,7 +35,7 @@
     <t>Positivo</t>
   </si>
   <si>
-    <t>3</t>
+    <t>Ri</t>
   </si>
   <si>
     <t>INF</t>

--- a/Download/Cinghiali_ZP.xlsx
+++ b/Download/Cinghiali_ZP.xlsx
@@ -314,7 +314,7 @@
         <v>15</v>
       </c>
       <c r="F9" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="G9" t="n">
         <v>0.0</v>

--- a/Download/Cinghiali_ZP.xlsx
+++ b/Download/Cinghiali_ZP.xlsx
@@ -314,7 +314,7 @@
         <v>15</v>
       </c>
       <c r="F9" t="n">
-        <v>39.0</v>
+        <v>40.0</v>
       </c>
       <c r="G9" t="n">
         <v>0.0</v>

--- a/Download/Cinghiali_ZP.xlsx
+++ b/Download/Cinghiali_ZP.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
   <si>
     <t>Area</t>
   </si>
@@ -29,7 +29,34 @@
     <t>Incidentato</t>
   </si>
   <si>
-    <t>N</t>
+    <t>Positivo</t>
+  </si>
+  <si>
+    <t>Negativo</t>
+  </si>
+  <si>
+    <t>Cl</t>
+  </si>
+  <si>
+    <t>INF</t>
+  </si>
+  <si>
+    <t>LIM</t>
+  </si>
+  <si>
+    <t>Calabria</t>
+  </si>
+  <si>
+    <t>Reggio calabria</t>
+  </si>
+  <si>
+    <t>Reggio di calabria</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Si</t>
   </si>
 </sst>
 </file>
@@ -99,14 +126,124 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2"/>
-      <c r="B2"/>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>7.0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/Download/Cinghiali_ZP.xlsx
+++ b/Download/Cinghiali_ZP.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
   <si>
     <t>Area</t>
   </si>
@@ -29,12 +29,12 @@
     <t>Incidentato</t>
   </si>
   <si>
+    <t>Negativo</t>
+  </si>
+  <si>
     <t>Positivo</t>
   </si>
   <si>
-    <t>Negativo</t>
-  </si>
-  <si>
     <t>Cl</t>
   </si>
   <si>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t>Reggio calabria</t>
-  </si>
-  <si>
-    <t>Reggio di calabria</t>
   </si>
   <si>
     <t>No</t>
@@ -144,13 +141,13 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" t="n">
         <v>2.0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="3">
@@ -164,16 +161,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
       <c r="F3" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="G3" t="n">
         <v>0.0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -181,22 +178,22 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
       <c r="F4" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="G4" t="n">
         <v>0.0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>11.0</v>
       </c>
     </row>
     <row r="5">
@@ -210,39 +207,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
       </c>
       <c r="F5" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="G5" t="n">
         <v>0.0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>7.0</v>
       </c>
     </row>
   </sheetData>

--- a/Download/Cinghiali_ZP.xlsx
+++ b/Download/Cinghiali_ZP.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="22">
   <si>
     <t>Area</t>
   </si>
@@ -35,6 +35,9 @@
     <t>Positivo</t>
   </si>
   <si>
+    <t>Ca</t>
+  </si>
+  <si>
     <t>Cl</t>
   </si>
   <si>
@@ -44,13 +47,34 @@
     <t>LIM</t>
   </si>
   <si>
+    <t>Basilicata</t>
+  </si>
+  <si>
+    <t>Campania</t>
+  </si>
+  <si>
     <t>Calabria</t>
   </si>
   <si>
+    <t>Potenza</t>
+  </si>
+  <si>
+    <t>Salerno</t>
+  </si>
+  <si>
+    <t>Matera</t>
+  </si>
+  <si>
+    <t>Avellino</t>
+  </si>
+  <si>
     <t>Reggio calabria</t>
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>Non determinato</t>
   </si>
   <si>
     <t>Si</t>
@@ -132,22 +156,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F2" t="n">
         <v>2.0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
@@ -155,19 +179,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F3" t="n">
-        <v>11.0</v>
+        <v>1.0</v>
       </c>
       <c r="G3" t="n">
         <v>0.0</v>
@@ -181,16 +205,16 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F4" t="n">
-        <v>7.0</v>
+        <v>17.0</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>
@@ -204,18 +228,340 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" t="n">
+        <v>311.0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
         <v>13</v>
       </c>
-      <c r="F5" t="n">
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" t="n">
         <v>7.0</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G19" t="n">
         <v>0.0</v>
       </c>
     </row>

--- a/Download/Cinghiali_ZP.xlsx
+++ b/Download/Cinghiali_ZP.xlsx
@@ -490,7 +490,7 @@
         <v>19</v>
       </c>
       <c r="F16" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="G16" t="n">
         <v>2.0</v>

--- a/Download/Cinghiali_ZP.xlsx
+++ b/Download/Cinghiali_ZP.xlsx
@@ -237,7 +237,7 @@
         <v>19</v>
       </c>
       <c r="F5" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="G5" t="n">
         <v>13.0</v>
@@ -421,7 +421,7 @@
         <v>19</v>
       </c>
       <c r="F13" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="G13" t="n">
         <v>0.0</v>
@@ -467,7 +467,7 @@
         <v>21</v>
       </c>
       <c r="F15" t="n">
-        <v>71.0</v>
+        <v>75.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>

--- a/Download/Cinghiali_ZP.xlsx
+++ b/Download/Cinghiali_ZP.xlsx
@@ -260,7 +260,7 @@
         <v>20</v>
       </c>
       <c r="F6" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="G6" t="n">
         <v>0.0</v>
@@ -283,7 +283,7 @@
         <v>21</v>
       </c>
       <c r="F7" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="G7" t="n">
         <v>0.0</v>
@@ -421,7 +421,7 @@
         <v>19</v>
       </c>
       <c r="F13" t="n">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
       <c r="G13" t="n">
         <v>0.0</v>
@@ -444,7 +444,7 @@
         <v>20</v>
       </c>
       <c r="F14" t="n">
-        <v>14.0</v>
+        <v>19.0</v>
       </c>
       <c r="G14" t="n">
         <v>0.0</v>
@@ -467,7 +467,7 @@
         <v>21</v>
       </c>
       <c r="F15" t="n">
-        <v>75.0</v>
+        <v>78.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>
@@ -490,7 +490,7 @@
         <v>19</v>
       </c>
       <c r="F16" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="G16" t="n">
         <v>2.0</v>
@@ -513,7 +513,7 @@
         <v>21</v>
       </c>
       <c r="F17" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="G17" t="n">
         <v>0.0</v>

--- a/Download/Cinghiali_ZP.xlsx
+++ b/Download/Cinghiali_ZP.xlsx
@@ -240,7 +240,7 @@
         <v>11.0</v>
       </c>
       <c r="G5" t="n">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="6">
@@ -286,7 +286,7 @@
         <v>18.0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">

--- a/Download/Cinghiali_ZP.xlsx
+++ b/Download/Cinghiali_ZP.xlsx
@@ -240,7 +240,7 @@
         <v>11.0</v>
       </c>
       <c r="G5" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="6">
@@ -263,7 +263,7 @@
         <v>7.0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">

--- a/Download/Cinghiali_ZP.xlsx
+++ b/Download/Cinghiali_ZP.xlsx
@@ -240,7 +240,7 @@
         <v>11.0</v>
       </c>
       <c r="G5" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="6">
@@ -263,7 +263,7 @@
         <v>7.0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">

--- a/Download/Cinghiali_ZP.xlsx
+++ b/Download/Cinghiali_ZP.xlsx
@@ -214,7 +214,7 @@
         <v>21</v>
       </c>
       <c r="F4" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>
@@ -263,7 +263,7 @@
         <v>7.0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="7">
@@ -352,7 +352,7 @@
         <v>20</v>
       </c>
       <c r="F10" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="G10" t="n">
         <v>0.0</v>
@@ -375,7 +375,7 @@
         <v>21</v>
       </c>
       <c r="F11" t="n">
-        <v>311.0</v>
+        <v>319.0</v>
       </c>
       <c r="G11" t="n">
         <v>0.0</v>
@@ -493,7 +493,7 @@
         <v>5.0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="17">
@@ -516,7 +516,7 @@
         <v>12.0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="18">
@@ -536,7 +536,7 @@
         <v>19</v>
       </c>
       <c r="F18" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="G18" t="n">
         <v>0.0</v>

--- a/Download/Cinghiali_ZP.xlsx
+++ b/Download/Cinghiali_ZP.xlsx
@@ -240,7 +240,7 @@
         <v>11.0</v>
       </c>
       <c r="G5" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="6">

--- a/Download/Cinghiali_ZP.xlsx
+++ b/Download/Cinghiali_ZP.xlsx
@@ -263,7 +263,7 @@
         <v>7.0</v>
       </c>
       <c r="G6" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="7">
@@ -283,7 +283,7 @@
         <v>21</v>
       </c>
       <c r="F7" t="n">
-        <v>18.0</v>
+        <v>20.0</v>
       </c>
       <c r="G7" t="n">
         <v>1.0</v>
@@ -421,7 +421,7 @@
         <v>19</v>
       </c>
       <c r="F13" t="n">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
       <c r="G13" t="n">
         <v>0.0</v>
@@ -444,7 +444,7 @@
         <v>20</v>
       </c>
       <c r="F14" t="n">
-        <v>19.0</v>
+        <v>21.0</v>
       </c>
       <c r="G14" t="n">
         <v>0.0</v>
@@ -467,7 +467,7 @@
         <v>21</v>
       </c>
       <c r="F15" t="n">
-        <v>78.0</v>
+        <v>79.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>
@@ -539,7 +539,7 @@
         <v>9.0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="19">

--- a/Download/Cinghiali_ZP.xlsx
+++ b/Download/Cinghiali_ZP.xlsx
@@ -283,7 +283,7 @@
         <v>21</v>
       </c>
       <c r="F7" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="G7" t="n">
         <v>1.0</v>
@@ -421,7 +421,7 @@
         <v>19</v>
       </c>
       <c r="F13" t="n">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
       <c r="G13" t="n">
         <v>0.0</v>
@@ -444,7 +444,7 @@
         <v>20</v>
       </c>
       <c r="F14" t="n">
-        <v>21.0</v>
+        <v>25.0</v>
       </c>
       <c r="G14" t="n">
         <v>0.0</v>
@@ -467,7 +467,7 @@
         <v>21</v>
       </c>
       <c r="F15" t="n">
-        <v>79.0</v>
+        <v>80.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>

--- a/Download/Cinghiali_ZP.xlsx
+++ b/Download/Cinghiali_ZP.xlsx
@@ -263,7 +263,7 @@
         <v>7.0</v>
       </c>
       <c r="G6" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="7">
@@ -421,7 +421,7 @@
         <v>19</v>
       </c>
       <c r="F13" t="n">
-        <v>30.0</v>
+        <v>33.0</v>
       </c>
       <c r="G13" t="n">
         <v>0.0</v>
@@ -444,7 +444,7 @@
         <v>20</v>
       </c>
       <c r="F14" t="n">
-        <v>25.0</v>
+        <v>37.0</v>
       </c>
       <c r="G14" t="n">
         <v>0.0</v>
@@ -467,7 +467,7 @@
         <v>21</v>
       </c>
       <c r="F15" t="n">
-        <v>80.0</v>
+        <v>85.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>

--- a/Download/Cinghiali_ZP.xlsx
+++ b/Download/Cinghiali_ZP.xlsx
@@ -237,7 +237,7 @@
         <v>19</v>
       </c>
       <c r="F5" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="G5" t="n">
         <v>18.0</v>
@@ -263,7 +263,7 @@
         <v>7.0</v>
       </c>
       <c r="G6" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="7">
@@ -421,7 +421,7 @@
         <v>19</v>
       </c>
       <c r="F13" t="n">
-        <v>33.0</v>
+        <v>37.0</v>
       </c>
       <c r="G13" t="n">
         <v>0.0</v>
@@ -444,7 +444,7 @@
         <v>20</v>
       </c>
       <c r="F14" t="n">
-        <v>37.0</v>
+        <v>40.0</v>
       </c>
       <c r="G14" t="n">
         <v>0.0</v>
@@ -467,7 +467,7 @@
         <v>21</v>
       </c>
       <c r="F15" t="n">
-        <v>85.0</v>
+        <v>86.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>
@@ -490,7 +490,7 @@
         <v>19</v>
       </c>
       <c r="F16" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="G16" t="n">
         <v>8.0</v>

--- a/Download/Cinghiali_ZP.xlsx
+++ b/Download/Cinghiali_ZP.xlsx
@@ -168,7 +168,7 @@
         <v>19</v>
       </c>
       <c r="F2" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="G2" t="n">
         <v>0.0</v>
@@ -214,7 +214,7 @@
         <v>21</v>
       </c>
       <c r="F4" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>
@@ -329,7 +329,7 @@
         <v>19</v>
       </c>
       <c r="F9" t="n">
-        <v>18.0</v>
+        <v>25.0</v>
       </c>
       <c r="G9" t="n">
         <v>0.0</v>
@@ -352,7 +352,7 @@
         <v>20</v>
       </c>
       <c r="F10" t="n">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="G10" t="n">
         <v>0.0</v>
@@ -375,7 +375,7 @@
         <v>21</v>
       </c>
       <c r="F11" t="n">
-        <v>319.0</v>
+        <v>338.0</v>
       </c>
       <c r="G11" t="n">
         <v>0.0</v>

--- a/Download/Cinghiali_ZP.xlsx
+++ b/Download/Cinghiali_ZP.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Segnalazione" r:id="rId3" sheetId="1"/>
+    <sheet name="Ricerca" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="22">
   <si>
     <t>Area</t>
   </si>
@@ -421,7 +422,7 @@
         <v>19</v>
       </c>
       <c r="F13" t="n">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
       <c r="G13" t="n">
         <v>0.0</v>
@@ -444,7 +445,7 @@
         <v>20</v>
       </c>
       <c r="F14" t="n">
-        <v>40.0</v>
+        <v>46.0</v>
       </c>
       <c r="G14" t="n">
         <v>0.0</v>
@@ -467,7 +468,7 @@
         <v>21</v>
       </c>
       <c r="F15" t="n">
-        <v>86.0</v>
+        <v>92.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>
@@ -563,6 +564,53 @@
       </c>
       <c r="G19" t="n">
         <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>

--- a/Download/Cinghiali_ZP.xlsx
+++ b/Download/Cinghiali_ZP.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="19">
   <si>
     <t>Area</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Ca</t>
   </si>
   <si>
-    <t>Cl</t>
-  </si>
-  <si>
     <t>INF</t>
   </si>
   <si>
@@ -54,9 +51,6 @@
     <t>Campania</t>
   </si>
   <si>
-    <t>Calabria</t>
-  </si>
-  <si>
     <t>Potenza</t>
   </si>
   <si>
@@ -67,9 +61,6 @@
   </si>
   <si>
     <t>Avellino</t>
-  </si>
-  <si>
-    <t>Reggio calabria</t>
   </si>
   <si>
     <t>No</t>
@@ -157,16 +148,16 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F2" t="n">
         <v>4.0</v>
@@ -180,16 +171,16 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F3" t="n">
         <v>1.0</v>
@@ -203,16 +194,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F4" t="n">
         <v>19.0</v>
@@ -226,16 +217,16 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F5" t="n">
         <v>12.0</v>
@@ -249,16 +240,16 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F6" t="n">
         <v>7.0</v>
@@ -272,16 +263,16 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F7" t="n">
         <v>21.0</v>
@@ -295,16 +286,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F8" t="n">
         <v>1.0</v>
@@ -318,16 +309,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F9" t="n">
         <v>25.0</v>
@@ -341,16 +332,16 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F10" t="n">
         <v>12.0</v>
@@ -364,16 +355,16 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F11" t="n">
         <v>338.0</v>
@@ -387,16 +378,16 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F12" t="n">
         <v>1.0</v>
@@ -410,16 +401,16 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F13" t="n">
         <v>38.0</v>
@@ -433,16 +424,16 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F14" t="n">
         <v>46.0</v>
@@ -456,113 +447,21 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F15" t="n">
         <v>92.0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="G19" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -601,13 +500,13 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E2" t="n">
         <v>1.0</v>

--- a/Download/Cinghiali_ZP.xlsx
+++ b/Download/Cinghiali_ZP.xlsx
@@ -275,7 +275,7 @@
         <v>18</v>
       </c>
       <c r="F7" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="G7" t="n">
         <v>1.0</v>
@@ -436,7 +436,7 @@
         <v>17</v>
       </c>
       <c r="F14" t="n">
-        <v>46.0</v>
+        <v>48.0</v>
       </c>
       <c r="G14" t="n">
         <v>0.0</v>
@@ -459,7 +459,7 @@
         <v>18</v>
       </c>
       <c r="F15" t="n">
-        <v>92.0</v>
+        <v>97.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>
@@ -509,7 +509,7 @@
         <v>13</v>
       </c>
       <c r="E2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
   </sheetData>

--- a/Download/Cinghiali_ZP.xlsx
+++ b/Download/Cinghiali_ZP.xlsx
@@ -413,7 +413,7 @@
         <v>16</v>
       </c>
       <c r="F13" t="n">
-        <v>38.0</v>
+        <v>42.0</v>
       </c>
       <c r="G13" t="n">
         <v>0.0</v>
@@ -436,7 +436,7 @@
         <v>17</v>
       </c>
       <c r="F14" t="n">
-        <v>48.0</v>
+        <v>50.0</v>
       </c>
       <c r="G14" t="n">
         <v>0.0</v>
@@ -459,7 +459,7 @@
         <v>18</v>
       </c>
       <c r="F15" t="n">
-        <v>97.0</v>
+        <v>101.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>

--- a/Download/Cinghiali_ZP.xlsx
+++ b/Download/Cinghiali_ZP.xlsx
@@ -275,7 +275,7 @@
         <v>18</v>
       </c>
       <c r="F7" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="G7" t="n">
         <v>1.0</v>
@@ -436,7 +436,7 @@
         <v>17</v>
       </c>
       <c r="F14" t="n">
-        <v>50.0</v>
+        <v>51.0</v>
       </c>
       <c r="G14" t="n">
         <v>0.0</v>
@@ -459,7 +459,7 @@
         <v>18</v>
       </c>
       <c r="F15" t="n">
-        <v>101.0</v>
+        <v>104.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>

--- a/Download/Cinghiali_ZP.xlsx
+++ b/Download/Cinghiali_ZP.xlsx
@@ -413,7 +413,7 @@
         <v>16</v>
       </c>
       <c r="F13" t="n">
-        <v>42.0</v>
+        <v>44.0</v>
       </c>
       <c r="G13" t="n">
         <v>0.0</v>
@@ -436,7 +436,7 @@
         <v>17</v>
       </c>
       <c r="F14" t="n">
-        <v>51.0</v>
+        <v>52.0</v>
       </c>
       <c r="G14" t="n">
         <v>0.0</v>
@@ -459,7 +459,7 @@
         <v>18</v>
       </c>
       <c r="F15" t="n">
-        <v>104.0</v>
+        <v>110.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>

--- a/Download/Cinghiali_ZP.xlsx
+++ b/Download/Cinghiali_ZP.xlsx
@@ -413,7 +413,7 @@
         <v>16</v>
       </c>
       <c r="F13" t="n">
-        <v>44.0</v>
+        <v>45.0</v>
       </c>
       <c r="G13" t="n">
         <v>0.0</v>
@@ -436,7 +436,7 @@
         <v>17</v>
       </c>
       <c r="F14" t="n">
-        <v>52.0</v>
+        <v>54.0</v>
       </c>
       <c r="G14" t="n">
         <v>0.0</v>
@@ -459,7 +459,7 @@
         <v>18</v>
       </c>
       <c r="F15" t="n">
-        <v>110.0</v>
+        <v>112.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>

--- a/Download/Cinghiali_ZP.xlsx
+++ b/Download/Cinghiali_ZP.xlsx
@@ -275,7 +275,7 @@
         <v>18</v>
       </c>
       <c r="F7" t="n">
-        <v>23.0</v>
+        <v>26.0</v>
       </c>
       <c r="G7" t="n">
         <v>1.0</v>
@@ -413,7 +413,7 @@
         <v>16</v>
       </c>
       <c r="F13" t="n">
-        <v>45.0</v>
+        <v>46.0</v>
       </c>
       <c r="G13" t="n">
         <v>0.0</v>
@@ -436,7 +436,7 @@
         <v>17</v>
       </c>
       <c r="F14" t="n">
-        <v>54.0</v>
+        <v>55.0</v>
       </c>
       <c r="G14" t="n">
         <v>0.0</v>
@@ -459,7 +459,7 @@
         <v>18</v>
       </c>
       <c r="F15" t="n">
-        <v>112.0</v>
+        <v>115.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>

--- a/Download/Cinghiali_ZP.xlsx
+++ b/Download/Cinghiali_ZP.xlsx
@@ -321,7 +321,7 @@
         <v>16</v>
       </c>
       <c r="F9" t="n">
-        <v>25.0</v>
+        <v>29.0</v>
       </c>
       <c r="G9" t="n">
         <v>0.0</v>
@@ -344,7 +344,7 @@
         <v>17</v>
       </c>
       <c r="F10" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="G10" t="n">
         <v>0.0</v>
@@ -367,7 +367,7 @@
         <v>18</v>
       </c>
       <c r="F11" t="n">
-        <v>338.0</v>
+        <v>355.0</v>
       </c>
       <c r="G11" t="n">
         <v>0.0</v>

--- a/Download/Cinghiali_ZP.xlsx
+++ b/Download/Cinghiali_ZP.xlsx
@@ -275,7 +275,7 @@
         <v>18</v>
       </c>
       <c r="F7" t="n">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
       <c r="G7" t="n">
         <v>1.0</v>
@@ -413,7 +413,7 @@
         <v>16</v>
       </c>
       <c r="F13" t="n">
-        <v>46.0</v>
+        <v>49.0</v>
       </c>
       <c r="G13" t="n">
         <v>0.0</v>
@@ -436,7 +436,7 @@
         <v>17</v>
       </c>
       <c r="F14" t="n">
-        <v>55.0</v>
+        <v>58.0</v>
       </c>
       <c r="G14" t="n">
         <v>0.0</v>
@@ -459,7 +459,7 @@
         <v>18</v>
       </c>
       <c r="F15" t="n">
-        <v>115.0</v>
+        <v>117.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>

--- a/Download/Cinghiali_ZP.xlsx
+++ b/Download/Cinghiali_ZP.xlsx
@@ -459,7 +459,7 @@
         <v>18</v>
       </c>
       <c r="F15" t="n">
-        <v>117.0</v>
+        <v>119.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>

--- a/Download/Cinghiali_ZP.xlsx
+++ b/Download/Cinghiali_ZP.xlsx
@@ -229,7 +229,7 @@
         <v>16</v>
       </c>
       <c r="F5" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="G5" t="n">
         <v>18.0</v>
@@ -252,7 +252,7 @@
         <v>17</v>
       </c>
       <c r="F6" t="n">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="G6" t="n">
         <v>8.0</v>
@@ -413,7 +413,7 @@
         <v>16</v>
       </c>
       <c r="F13" t="n">
-        <v>49.0</v>
+        <v>52.0</v>
       </c>
       <c r="G13" t="n">
         <v>0.0</v>
@@ -436,7 +436,7 @@
         <v>17</v>
       </c>
       <c r="F14" t="n">
-        <v>58.0</v>
+        <v>59.0</v>
       </c>
       <c r="G14" t="n">
         <v>0.0</v>
@@ -459,7 +459,7 @@
         <v>18</v>
       </c>
       <c r="F15" t="n">
-        <v>119.0</v>
+        <v>124.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>

--- a/Download/Cinghiali_ZP.xlsx
+++ b/Download/Cinghiali_ZP.xlsx
@@ -275,7 +275,7 @@
         <v>18</v>
       </c>
       <c r="F7" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="G7" t="n">
         <v>1.0</v>
@@ -413,7 +413,7 @@
         <v>16</v>
       </c>
       <c r="F13" t="n">
-        <v>52.0</v>
+        <v>54.0</v>
       </c>
       <c r="G13" t="n">
         <v>0.0</v>
@@ -436,7 +436,7 @@
         <v>17</v>
       </c>
       <c r="F14" t="n">
-        <v>59.0</v>
+        <v>60.0</v>
       </c>
       <c r="G14" t="n">
         <v>0.0</v>
@@ -459,7 +459,7 @@
         <v>18</v>
       </c>
       <c r="F15" t="n">
-        <v>124.0</v>
+        <v>132.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>

--- a/Download/Cinghiali_ZP.xlsx
+++ b/Download/Cinghiali_ZP.xlsx
@@ -252,7 +252,7 @@
         <v>17</v>
       </c>
       <c r="F6" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="G6" t="n">
         <v>8.0</v>
@@ -275,7 +275,7 @@
         <v>18</v>
       </c>
       <c r="F7" t="n">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="G7" t="n">
         <v>1.0</v>
@@ -413,7 +413,7 @@
         <v>16</v>
       </c>
       <c r="F13" t="n">
-        <v>54.0</v>
+        <v>55.0</v>
       </c>
       <c r="G13" t="n">
         <v>0.0</v>
@@ -436,7 +436,7 @@
         <v>17</v>
       </c>
       <c r="F14" t="n">
-        <v>60.0</v>
+        <v>62.0</v>
       </c>
       <c r="G14" t="n">
         <v>0.0</v>
@@ -459,7 +459,7 @@
         <v>18</v>
       </c>
       <c r="F15" t="n">
-        <v>132.0</v>
+        <v>136.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>

--- a/Download/Cinghiali_ZP.xlsx
+++ b/Download/Cinghiali_ZP.xlsx
@@ -255,7 +255,7 @@
         <v>11.0</v>
       </c>
       <c r="G6" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="7">

--- a/Download/Cinghiali_ZP.xlsx
+++ b/Download/Cinghiali_ZP.xlsx
@@ -206,7 +206,7 @@
         <v>18</v>
       </c>
       <c r="F4" t="n">
-        <v>19.0</v>
+        <v>21.0</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>
@@ -321,7 +321,7 @@
         <v>16</v>
       </c>
       <c r="F9" t="n">
-        <v>29.0</v>
+        <v>35.0</v>
       </c>
       <c r="G9" t="n">
         <v>0.0</v>
@@ -344,7 +344,7 @@
         <v>17</v>
       </c>
       <c r="F10" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="G10" t="n">
         <v>0.0</v>
@@ -367,7 +367,7 @@
         <v>18</v>
       </c>
       <c r="F11" t="n">
-        <v>355.0</v>
+        <v>377.0</v>
       </c>
       <c r="G11" t="n">
         <v>0.0</v>

--- a/Download/Cinghiali_ZP.xlsx
+++ b/Download/Cinghiali_ZP.xlsx
@@ -413,7 +413,7 @@
         <v>16</v>
       </c>
       <c r="F13" t="n">
-        <v>55.0</v>
+        <v>57.0</v>
       </c>
       <c r="G13" t="n">
         <v>0.0</v>
@@ -436,7 +436,7 @@
         <v>17</v>
       </c>
       <c r="F14" t="n">
-        <v>62.0</v>
+        <v>66.0</v>
       </c>
       <c r="G14" t="n">
         <v>0.0</v>
@@ -459,7 +459,7 @@
         <v>18</v>
       </c>
       <c r="F15" t="n">
-        <v>136.0</v>
+        <v>149.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>

--- a/Download/Cinghiali_ZP.xlsx
+++ b/Download/Cinghiali_ZP.xlsx
@@ -367,7 +367,7 @@
         <v>18</v>
       </c>
       <c r="F11" t="n">
-        <v>377.0</v>
+        <v>378.0</v>
       </c>
       <c r="G11" t="n">
         <v>0.0</v>

--- a/Download/Cinghiali_ZP.xlsx
+++ b/Download/Cinghiali_ZP.xlsx
@@ -229,7 +229,7 @@
         <v>16</v>
       </c>
       <c r="F5" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="G5" t="n">
         <v>18.0</v>
@@ -252,7 +252,7 @@
         <v>17</v>
       </c>
       <c r="F6" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="G6" t="n">
         <v>7.0</v>
@@ -275,7 +275,7 @@
         <v>18</v>
       </c>
       <c r="F7" t="n">
-        <v>30.0</v>
+        <v>32.0</v>
       </c>
       <c r="G7" t="n">
         <v>1.0</v>
@@ -413,7 +413,7 @@
         <v>16</v>
       </c>
       <c r="F13" t="n">
-        <v>57.0</v>
+        <v>58.0</v>
       </c>
       <c r="G13" t="n">
         <v>0.0</v>
@@ -436,7 +436,7 @@
         <v>17</v>
       </c>
       <c r="F14" t="n">
-        <v>66.0</v>
+        <v>69.0</v>
       </c>
       <c r="G14" t="n">
         <v>0.0</v>
@@ -459,7 +459,7 @@
         <v>18</v>
       </c>
       <c r="F15" t="n">
-        <v>149.0</v>
+        <v>155.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>

--- a/Download/Cinghiali_ZP.xlsx
+++ b/Download/Cinghiali_ZP.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="30">
   <si>
     <t>Area</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Cuneo</t>
+  </si>
+  <si>
+    <t>Milano</t>
   </si>
   <si>
     <t>Torino</t>
@@ -191,7 +194,7 @@
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F2" t="n">
         <v>1.0</v>
@@ -217,7 +220,7 @@
         <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F3" t="n">
         <v>3.0</v>
@@ -243,7 +246,7 @@
         <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F4" t="n">
         <v>5.0</v>
@@ -269,7 +272,7 @@
         <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F5" t="n">
         <v>3.0</v>
@@ -295,7 +298,7 @@
         <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F6" t="n">
         <v>195.0</v>
@@ -321,7 +324,7 @@
         <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F7" t="n">
         <v>25.0</v>
@@ -347,7 +350,7 @@
         <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F8" t="n">
         <v>26.0</v>
@@ -373,7 +376,7 @@
         <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F9" t="n">
         <v>4.0</v>
@@ -399,7 +402,7 @@
         <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F10" t="n">
         <v>12.0</v>
@@ -425,7 +428,7 @@
         <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F11" t="n">
         <v>4.0</v>
@@ -451,7 +454,7 @@
         <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F12" t="n">
         <v>5.0</v>
@@ -477,7 +480,7 @@
         <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F13" t="n">
         <v>8.0</v>
@@ -503,7 +506,7 @@
         <v>21</v>
       </c>
       <c r="E14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F14" t="n">
         <v>17.0</v>
@@ -529,7 +532,7 @@
         <v>22</v>
       </c>
       <c r="E15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F15" t="n">
         <v>8.0</v>
@@ -555,7 +558,7 @@
         <v>22</v>
       </c>
       <c r="E16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F16" t="n">
         <v>5.0</v>
@@ -581,7 +584,7 @@
         <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F17" t="n">
         <v>37.0</v>
@@ -607,7 +610,7 @@
         <v>23</v>
       </c>
       <c r="E18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F18" t="n">
         <v>94.0</v>
@@ -633,7 +636,7 @@
         <v>23</v>
       </c>
       <c r="E19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F19" t="n">
         <v>3.0</v>
@@ -659,7 +662,7 @@
         <v>23</v>
       </c>
       <c r="E20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F20" t="n">
         <v>19.0</v>
@@ -685,7 +688,7 @@
         <v>24</v>
       </c>
       <c r="E21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F21" t="n">
         <v>10.0</v>
@@ -711,7 +714,7 @@
         <v>24</v>
       </c>
       <c r="E22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F22" t="n">
         <v>20.0</v>
@@ -737,7 +740,7 @@
         <v>24</v>
       </c>
       <c r="E23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F23" t="n">
         <v>10.0</v>
@@ -763,7 +766,7 @@
         <v>18</v>
       </c>
       <c r="E24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F24" t="n">
         <v>5.0</v>
@@ -789,7 +792,7 @@
         <v>18</v>
       </c>
       <c r="E25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F25" t="n">
         <v>1.0</v>
@@ -815,7 +818,7 @@
         <v>19</v>
       </c>
       <c r="E26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F26" t="n">
         <v>776.0</v>
@@ -824,7 +827,7 @@
         <v>27.0</v>
       </c>
       <c r="H26" t="n">
-        <v>211.0</v>
+        <v>213.0</v>
       </c>
     </row>
     <row r="27">
@@ -841,7 +844,7 @@
         <v>19</v>
       </c>
       <c r="E27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F27" t="n">
         <v>66.0</v>
@@ -867,7 +870,7 @@
         <v>19</v>
       </c>
       <c r="E28" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F28" t="n">
         <v>147.0</v>
@@ -893,7 +896,7 @@
         <v>20</v>
       </c>
       <c r="E29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F29" t="n">
         <v>68.0</v>
@@ -919,7 +922,7 @@
         <v>20</v>
       </c>
       <c r="E30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F30" t="n">
         <v>67.0</v>
@@ -945,7 +948,7 @@
         <v>20</v>
       </c>
       <c r="E31" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F31" t="n">
         <v>43.0</v>
@@ -971,7 +974,7 @@
         <v>21</v>
       </c>
       <c r="E32" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F32" t="n">
         <v>15.0</v>
@@ -997,7 +1000,7 @@
         <v>21</v>
       </c>
       <c r="E33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F33" t="n">
         <v>26.0</v>
@@ -1023,7 +1026,7 @@
         <v>21</v>
       </c>
       <c r="E34" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F34" t="n">
         <v>40.0</v>
@@ -1049,7 +1052,7 @@
         <v>22</v>
       </c>
       <c r="E35" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F35" t="n">
         <v>95.0</v>
@@ -1075,7 +1078,7 @@
         <v>22</v>
       </c>
       <c r="E36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F36" t="n">
         <v>121.0</v>
@@ -1101,7 +1104,7 @@
         <v>22</v>
       </c>
       <c r="E37" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F37" t="n">
         <v>210.0</v>
@@ -1127,7 +1130,7 @@
         <v>23</v>
       </c>
       <c r="E38" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F38" t="n">
         <v>9.0</v>
@@ -1153,7 +1156,7 @@
         <v>23</v>
       </c>
       <c r="E39" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F39" t="n">
         <v>8.0</v>
@@ -1179,7 +1182,7 @@
         <v>23</v>
       </c>
       <c r="E40" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F40" t="n">
         <v>9.0</v>
@@ -1205,7 +1208,7 @@
         <v>24</v>
       </c>
       <c r="E41" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F41" t="n">
         <v>1.0</v>
@@ -1228,19 +1231,19 @@
         <v>15</v>
       </c>
       <c r="D42" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E42" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F42" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H42" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="43">
@@ -1254,13 +1257,13 @@
         <v>15</v>
       </c>
       <c r="D43" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E43" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F43" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="G43" t="n">
         <v>0.0</v>
@@ -1280,13 +1283,13 @@
         <v>15</v>
       </c>
       <c r="D44" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E44" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F44" t="n">
-        <v>14.0</v>
+        <v>2.0</v>
       </c>
       <c r="G44" t="n">
         <v>0.0</v>
@@ -1300,25 +1303,25 @@
         <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D45" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E45" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F45" t="n">
-        <v>10.0</v>
+        <v>7.0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="46">
@@ -1326,19 +1329,19 @@
         <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D46" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E46" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F46" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="G46" t="n">
         <v>0.0</v>
@@ -1352,19 +1355,19 @@
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D47" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E47" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F47" t="n">
-        <v>48.0</v>
+        <v>14.0</v>
       </c>
       <c r="G47" t="n">
         <v>0.0</v>
@@ -1384,13 +1387,13 @@
         <v>13</v>
       </c>
       <c r="D48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E48" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F48" t="n">
-        <v>13.0</v>
+        <v>10.0</v>
       </c>
       <c r="G48" t="n">
         <v>0.0</v>
@@ -1410,13 +1413,13 @@
         <v>13</v>
       </c>
       <c r="D49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E49" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F49" t="n">
-        <v>17.0</v>
+        <v>6.0</v>
       </c>
       <c r="G49" t="n">
         <v>0.0</v>
@@ -1436,13 +1439,13 @@
         <v>13</v>
       </c>
       <c r="D50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E50" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F50" t="n">
-        <v>46.0</v>
+        <v>48.0</v>
       </c>
       <c r="G50" t="n">
         <v>0.0</v>
@@ -1459,16 +1462,16 @@
         <v>12</v>
       </c>
       <c r="C51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D51" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E51" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F51" t="n">
-        <v>2.0</v>
+        <v>13.0</v>
       </c>
       <c r="G51" t="n">
         <v>0.0</v>
@@ -1485,16 +1488,16 @@
         <v>12</v>
       </c>
       <c r="C52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D52" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E52" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F52" t="n">
-        <v>5.0</v>
+        <v>17.0</v>
       </c>
       <c r="G52" t="n">
         <v>0.0</v>
@@ -1511,16 +1514,16 @@
         <v>12</v>
       </c>
       <c r="C53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D53" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E53" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F53" t="n">
-        <v>4.0</v>
+        <v>46.0</v>
       </c>
       <c r="G53" t="n">
         <v>0.0</v>
@@ -1540,13 +1543,13 @@
         <v>14</v>
       </c>
       <c r="D54" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E54" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F54" t="n">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
       <c r="G54" t="n">
         <v>0.0</v>
@@ -1566,13 +1569,13 @@
         <v>14</v>
       </c>
       <c r="D55" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E55" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F55" t="n">
-        <v>20.0</v>
+        <v>5.0</v>
       </c>
       <c r="G55" t="n">
         <v>0.0</v>
@@ -1592,13 +1595,13 @@
         <v>14</v>
       </c>
       <c r="D56" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E56" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F56" t="n">
-        <v>55.0</v>
+        <v>4.0</v>
       </c>
       <c r="G56" t="n">
         <v>0.0</v>
@@ -1615,16 +1618,16 @@
         <v>12</v>
       </c>
       <c r="C57" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D57" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E57" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F57" t="n">
-        <v>12.0</v>
+        <v>10.0</v>
       </c>
       <c r="G57" t="n">
         <v>0.0</v>
@@ -1641,16 +1644,16 @@
         <v>12</v>
       </c>
       <c r="C58" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D58" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E58" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F58" t="n">
-        <v>33.0</v>
+        <v>20.0</v>
       </c>
       <c r="G58" t="n">
         <v>0.0</v>
@@ -1667,16 +1670,16 @@
         <v>12</v>
       </c>
       <c r="C59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D59" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E59" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F59" t="n">
-        <v>94.0</v>
+        <v>55.0</v>
       </c>
       <c r="G59" t="n">
         <v>0.0</v>
@@ -1693,16 +1696,16 @@
         <v>12</v>
       </c>
       <c r="C60" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D60" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E60" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F60" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="G60" t="n">
         <v>0.0</v>
@@ -1719,16 +1722,16 @@
         <v>12</v>
       </c>
       <c r="C61" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D61" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E61" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F61" t="n">
-        <v>13.0</v>
+        <v>2.0</v>
       </c>
       <c r="G61" t="n">
         <v>0.0</v>
@@ -1745,16 +1748,16 @@
         <v>12</v>
       </c>
       <c r="C62" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D62" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E62" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F62" t="n">
-        <v>31.0</v>
+        <v>10.0</v>
       </c>
       <c r="G62" t="n">
         <v>0.0</v>
@@ -1771,16 +1774,16 @@
         <v>12</v>
       </c>
       <c r="C63" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D63" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E63" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F63" t="n">
-        <v>38.0</v>
+        <v>12.0</v>
       </c>
       <c r="G63" t="n">
         <v>0.0</v>
@@ -1797,16 +1800,16 @@
         <v>12</v>
       </c>
       <c r="C64" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D64" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E64" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F64" t="n">
-        <v>17.0</v>
+        <v>33.0</v>
       </c>
       <c r="G64" t="n">
         <v>0.0</v>
@@ -1823,16 +1826,16 @@
         <v>12</v>
       </c>
       <c r="C65" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D65" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E65" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F65" t="n">
-        <v>51.0</v>
+        <v>94.0</v>
       </c>
       <c r="G65" t="n">
         <v>0.0</v>
@@ -1852,16 +1855,16 @@
         <v>16</v>
       </c>
       <c r="D66" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E66" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F66" t="n">
-        <v>55.0</v>
+        <v>3.0</v>
       </c>
       <c r="G66" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H66" t="n">
         <v>0.0</v>
@@ -1878,16 +1881,16 @@
         <v>16</v>
       </c>
       <c r="D67" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E67" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F67" t="n">
-        <v>97.0</v>
+        <v>13.0</v>
       </c>
       <c r="G67" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="H67" t="n">
         <v>0.0</v>
@@ -1904,16 +1907,16 @@
         <v>16</v>
       </c>
       <c r="D68" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E68" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F68" t="n">
-        <v>153.0</v>
+        <v>31.0</v>
       </c>
       <c r="G68" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H68" t="n">
         <v>0.0</v>
@@ -1930,18 +1933,174 @@
         <v>16</v>
       </c>
       <c r="D69" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E69" t="s">
+        <v>27</v>
+      </c>
+      <c r="F69" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D70" t="s">
+        <v>23</v>
+      </c>
+      <c r="E70" t="s">
+        <v>28</v>
+      </c>
+      <c r="F70" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" t="s">
+        <v>16</v>
+      </c>
+      <c r="D71" t="s">
+        <v>23</v>
+      </c>
+      <c r="E71" t="s">
+        <v>29</v>
+      </c>
+      <c r="F71" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" t="s">
+        <v>12</v>
+      </c>
+      <c r="C72" t="s">
+        <v>16</v>
+      </c>
+      <c r="D72" t="s">
+        <v>24</v>
+      </c>
+      <c r="E72" t="s">
+        <v>27</v>
+      </c>
+      <c r="F72" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73" t="s">
+        <v>16</v>
+      </c>
+      <c r="D73" t="s">
+        <v>24</v>
+      </c>
+      <c r="E73" t="s">
+        <v>28</v>
+      </c>
+      <c r="F73" t="n">
+        <v>97.0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74" t="s">
+        <v>16</v>
+      </c>
+      <c r="D74" t="s">
+        <v>24</v>
+      </c>
+      <c r="E74" t="s">
+        <v>29</v>
+      </c>
+      <c r="F74" t="n">
+        <v>153.0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" t="s">
+        <v>16</v>
+      </c>
+      <c r="D75" t="s">
         <v>26</v>
       </c>
-      <c r="F69" t="n">
+      <c r="E75" t="s">
+        <v>27</v>
+      </c>
+      <c r="F75" t="n">
         <v>1.0</v>
       </c>
-      <c r="G69" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H69" t="n">
+      <c r="G75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H75" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -2445,13 +2604,13 @@
         <v>19</v>
       </c>
       <c r="E8" t="n">
-        <v>1195.0</v>
+        <v>1203.0</v>
       </c>
       <c r="F8" t="n">
         <v>2.0</v>
       </c>
       <c r="G8" t="n">
-        <v>23.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="9">
@@ -2468,7 +2627,7 @@
         <v>20</v>
       </c>
       <c r="E9" t="n">
-        <v>458.0</v>
+        <v>459.0</v>
       </c>
       <c r="F9" t="n">
         <v>0.0</v>
@@ -2514,7 +2673,7 @@
         <v>22</v>
       </c>
       <c r="E11" t="n">
-        <v>2623.0</v>
+        <v>2628.0</v>
       </c>
       <c r="F11" t="n">
         <v>1.0</v>

--- a/Download/Cinghiali_ZP.xlsx
+++ b/Download/Cinghiali_ZP.xlsx
@@ -261,7 +261,7 @@
         <v>15</v>
       </c>
       <c r="F6" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="G6" t="n">
         <v>0.0</v>
@@ -313,7 +313,7 @@
         <v>14</v>
       </c>
       <c r="F8" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="G8" t="n">
         <v>0.0</v>

--- a/Download/Cinghiali_ZP.xlsx
+++ b/Download/Cinghiali_ZP.xlsx
@@ -235,13 +235,13 @@
         <v>14</v>
       </c>
       <c r="F5" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="G5" t="n">
         <v>1.0</v>
       </c>
       <c r="H5" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="6">
@@ -261,7 +261,7 @@
         <v>15</v>
       </c>
       <c r="F6" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="G6" t="n">
         <v>0.0</v>
@@ -287,7 +287,7 @@
         <v>16</v>
       </c>
       <c r="F7" t="n">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="G7" t="n">
         <v>0.0</v>

--- a/Download/Cinghiali_ZP.xlsx
+++ b/Download/Cinghiali_ZP.xlsx
@@ -241,7 +241,7 @@
         <v>1.0</v>
       </c>
       <c r="H5" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="6">

--- a/Download/Cinghiali_ZP.xlsx
+++ b/Download/Cinghiali_ZP.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="16">
   <si>
     <t>Area</t>
   </si>
@@ -31,9 +31,6 @@
   </si>
   <si>
     <t>Negativo</t>
-  </si>
-  <si>
-    <t>Non idoneo</t>
   </si>
   <si>
     <t>Positivo</t>
@@ -136,25 +133,22 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" t="n">
         <v>1.0</v>
@@ -162,25 +156,22 @@
       <c r="G2" t="n">
         <v>0.0</v>
       </c>
-      <c r="H2" t="n">
-        <v>0.0</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" t="n">
         <v>2.0</v>
@@ -188,25 +179,22 @@
       <c r="G3" t="n">
         <v>0.0</v>
       </c>
-      <c r="H3" t="n">
-        <v>0.0</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" t="n">
         <v>2.0</v>
@@ -214,103 +202,91 @@
       <c r="G4" t="n">
         <v>0.0</v>
       </c>
-      <c r="H4" t="n">
-        <v>0.0</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
       <c r="F5" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" t="n">
-        <v>10.0</v>
+        <v>4.0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H6" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7" t="n">
-        <v>16.0</v>
+        <v>8.0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H7" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" t="n">
         <v>9.0</v>
@@ -318,25 +294,22 @@
       <c r="G8" t="n">
         <v>0.0</v>
       </c>
-      <c r="H8" t="n">
-        <v>0.0</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" t="n">
         <v>2.0</v>
@@ -344,33 +317,27 @@
       <c r="G9" t="n">
         <v>0.0</v>
       </c>
-      <c r="H9" t="n">
-        <v>0.0</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10" t="n">
         <v>10.0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H10" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -401,24 +368,24 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>

--- a/Download/Cinghiali_ZP.xlsx
+++ b/Download/Cinghiali_ZP.xlsx
@@ -266,7 +266,7 @@
         <v>15</v>
       </c>
       <c r="F7" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="G7" t="n">
         <v>0.0</v>

--- a/Download/Cinghiali_ZP.xlsx
+++ b/Download/Cinghiali_ZP.xlsx
@@ -312,7 +312,7 @@
         <v>14</v>
       </c>
       <c r="F9" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="G9" t="n">
         <v>0.0</v>
@@ -335,7 +335,7 @@
         <v>15</v>
       </c>
       <c r="F10" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="G10" t="n">
         <v>0.0</v>

--- a/Download/Cinghiali_ZP.xlsx
+++ b/Download/Cinghiali_ZP.xlsx
@@ -8,12 +8,13 @@
   <sheets>
     <sheet name="Segnalazione" r:id="rId3" sheetId="1"/>
     <sheet name="Ricerca" r:id="rId4" sheetId="2"/>
+    <sheet name="Abbattuti_cacciati" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="16">
   <si>
     <t>Area</t>
   </si>
@@ -151,7 +152,7 @@
         <v>13</v>
       </c>
       <c r="F2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G2" t="n">
         <v>0.0</v>
@@ -391,4 +392,51 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/Download/Cinghiali_ZP.xlsx
+++ b/Download/Cinghiali_ZP.xlsx
@@ -247,7 +247,7 @@
         <v>4.0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">

--- a/Download/Cinghiali_ZP.xlsx
+++ b/Download/Cinghiali_ZP.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="16">
   <si>
     <t>Area</t>
   </si>
@@ -152,7 +152,7 @@
         <v>13</v>
       </c>
       <c r="F2" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="G2" t="n">
         <v>0.0</v>
@@ -430,10 +430,27 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="n">
-        <v>1.0</v>
+      <c r="E3" t="n">
+        <v>20.0</v>
       </c>
     </row>
   </sheetData>
